--- a/datasets/Brasileirao/match_history/teams/figueirense.xlsx
+++ b/datasets/Brasileirao/match_history/teams/figueirense.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P77"/>
+  <dimension ref="A1:R77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2016-05-15</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>42505</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -574,12 +586,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>2720</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.06587475442640295</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2016-05-21</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>42511</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -634,12 +650,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>2714</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.06627119107359372</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2016-05-25</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>42515</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,12 +714,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>2710</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.06653680671501686</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2016-05-28</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>42518</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,12 +778,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>2707</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.06673671685043246</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2016-06-01</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>42522</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -814,12 +842,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>2703</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.06700419832413973</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2016-06-05</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>42526</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -874,12 +906,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>2699</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.06727275186644961</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2016-06-12</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>42533</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -934,12 +970,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>2692</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.06774531316443397</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2016-06-15</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>42536</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -994,12 +1034,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>2689</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0679488542629192</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2016-06-19</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>42540</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1054,12 +1098,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>2685</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.06822119399631812</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2016-06-22</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>42543</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1114,12 +1162,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>2682</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.06842616488090583</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2016-06-26</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>42547</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1174,12 +1226,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>2678</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.06870041768035805</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2016-06-30</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>42551</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1234,12 +1290,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>2674</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.06897576968795878</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2016-07-03</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>42554</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1294,12 +1354,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>2671</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.06918300769861012</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2016-07-10</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>42561</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1354,12 +1418,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>2664</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.06966898769808184</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2016-07-17</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>42568</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1414,12 +1482,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>2657</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.0701583814918904</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2016-07-23</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>42574</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1474,12 +1546,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>2651</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.07058059716120341</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2016-07-30</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>42581</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1534,12 +1610,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>2644</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.07107639460789066</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2016-08-07</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>42589</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1594,12 +1674,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>2636</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.07164728628671672</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2016-08-13</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>42595</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1654,12 +1738,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>2630</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.0720784622387661</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2016-08-21</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>42603</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1714,12 +1802,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>2622</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.07265740261048442</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2016-08-28</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>42610</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1774,12 +1866,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>2615</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.07316778869598221</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2016-09-03</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>42616</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1834,12 +1930,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>2609</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.07360811508635084</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2016-09-07</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>42620</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1894,12 +1994,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>2605</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.07390313719755595</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2016-09-11</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>42624</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1954,12 +2058,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>2601</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.07419934176053282</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2016-09-14</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>42627</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2014,12 +2122,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>2598</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.07442227401699995</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2016-09-18</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>42631</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2074,12 +2186,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>2594</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.07472055928589216</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2016-09-25</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>42638</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2134,12 +2250,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>2587</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.07524543813360683</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2016-10-01</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>42644</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2194,12 +2314,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>2581</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.07569826789319881</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2016-10-09</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>42652</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2254,12 +2378,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>2573</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.07630628285344238</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2016-10-12</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>42655</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2314,12 +2442,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>2570</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.07653554542391151</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2016-10-16</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>42659</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2374,12 +2506,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>2566</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.07684230070716673</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2016-10-23</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>42666</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2434,12 +2570,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>2559</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0773820838490006</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2016-10-29</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>42672</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2494,12 +2634,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>2553</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.07784777201954257</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2016-11-06</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>42680</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2554,12 +2698,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>2545</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.07847305198072073</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2016-11-16</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>42690</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2614,12 +2762,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>2535</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.07926171926473155</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2016-11-20</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>42694</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2674,12 +2826,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>2531</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.07957940108184908</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2016-11-27</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>42701</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2734,12 +2890,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>2524</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.08013841114201005</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2016-12-11</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>42715</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2794,12 +2954,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>2510</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.08126823924089167</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2015-05-10</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>42134</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2850,12 +3014,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>3091</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.04545647519361237</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2015-05-17</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>42141</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2906,12 +3074,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>3084</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.04577578680675899</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2015-05-23</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>42147</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2962,12 +3134,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>3078</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.04605126714216527</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2015-05-31</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>42155</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3018,12 +3194,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>3070</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.04642115485743125</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2015-06-03</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>42158</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3074,12 +3254,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>3067</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.04656062742625237</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2015-06-07</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>42162</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3130,12 +3314,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>3063</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.04674724291812053</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2015-06-14</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>42169</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3186,12 +3374,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>3056</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.04707562160306615</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2015-06-18</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>42173</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3242,12 +3434,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>3052</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.04726430119709375</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2015-06-27</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>42182</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3298,12 +3494,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>3043</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.04769159986762284</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2015-07-02</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>42187</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3354,12 +3554,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>3038</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.0479306550067775</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2015-07-05</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>42190</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3410,12 +3614,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>3035</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.04807466287559518</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2015-07-08</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>42193</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3466,12 +3674,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>3032</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.04821910341670324</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2015-07-11</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>42196</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3522,12 +3734,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>3029</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.04836397793006753</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2015-07-19</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>42204</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3578,12 +3794,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>3021</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.04875244153612863</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2015-07-25</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>42210</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3634,12 +3854,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>3015</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.04904583548701673</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2015-08-02</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>42218</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3690,12 +3914,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>3007</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.04943977583127698</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2015-08-09</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>42225</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3746,12 +3974,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.04978706836786394</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2015-08-12</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>42228</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3802,12 +4034,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>2997</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.04993665383898514</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2015-08-16</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>42232</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3858,12 +4094,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>2993</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.05013680048076252</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2015-08-22</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>42238</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3914,12 +4154,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>2987</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.05043852555369119</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2015-08-29</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>42245</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3970,12 +4214,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>2980</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.0507928338648985</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2015-09-03</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>42250</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -4026,12 +4274,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>2975</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.05104743400415439</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2015-09-06</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>42253</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4082,12 +4334,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>2972</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.05120080624950572</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2015-09-09</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>42256</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4138,12 +4394,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>2969</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.05135463930245891</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2015-09-12</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>42259</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4194,12 +4454,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>2966</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.05150893454751242</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2015-09-16</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>42263</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4250,12 +4514,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>2962</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.05171538290715736</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2015-09-19</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>42266</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4306,12 +4574,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>2959</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.05187076200799579</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2015-09-27</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>42274</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4362,12 +4634,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>2951</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.05228739240361583</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2015-10-04</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>42281</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4418,12 +4694,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q68" t="n">
+        <v>2944</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.05265468818588921</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2015-10-14</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>42291</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4474,12 +4754,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q69" t="n">
+        <v>2934</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.05318387659992216</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2015-10-17</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>42294</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4530,12 +4814,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>2931</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.05334366779667368</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2015-10-24</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>42301</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4586,12 +4874,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>2924</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.05371838344593517</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2015-10-31</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>42308</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4642,12 +4934,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>2917</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.05409573130673365</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2015-11-08</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>42316</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4698,12 +4994,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>2909</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.05453023284600553</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2015-11-18</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>42326</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4754,12 +5054,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q74" t="n">
+        <v>2899</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.05507827079724649</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2015-11-22</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>42330</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4810,12 +5114,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q75" t="n">
+        <v>2895</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.05529902509469138</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2015-11-28</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>42336</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4866,12 +5174,16 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q76" t="n">
+        <v>2889</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.05563181662146587</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2015-12-06</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>42344</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4922,6 +5234,12 @@
           <t>figueirense</t>
         </is>
       </c>
+      <c r="Q77" t="n">
+        <v>2881</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.05607865612932754</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
